--- a/biology/Zoologie/Lygaeus_obscurellus/Lygaeus_obscurellus.xlsx
+++ b/biology/Zoologie/Lygaeus_obscurellus/Lygaeus_obscurellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lygaeus obscurellus est une espèce fossile d'insectes hémiptères du sous-ordre des hétéroptères (punaises), de la famille des Lygaeidae, dans le genre Lygaeus.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lygaeus obscurellus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), fait partie des collections de l'institut géologique de Montpellier et vient du gisement fossile du gypse d'Aix-en-Provence dans le département des Bouches-du-Rhône.
-Étymologie
-L'épithète spécifique obscurellus signifie en latin « sombre ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lygaeus obscurellus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,53 +553,204 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), fait partie des collections de l'institut géologique de Montpellier et vient du gisement fossile du gypse d'Aix-en-Provence dans le département des Bouches-du-Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique obscurellus signifie en latin « sombre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Insecte au corps brunâtre. La tête est légèrement allongée, arrondie à l'arrière ; lobe médian saillant ; gros yeux latéraux de forme ovale ; antennes presque aussi longues que le corps, quatre articles, le premier à peu près aussi long que la tête, le deuxième un peu plus long, le troisième plus court que le second, le quatrième non renflé. La surface de la tête est couverte de quelques ponctuations noires que l'on retrouve sur le thorax et la corie des hémélytres.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insecte au corps brunâtre. La tête est légèrement allongée, arrondie à l'arrière ; lobe médian saillant ; gros yeux latéraux de forme ovale ; antennes presque aussi longues que le corps, quatre articles, le premier à peu près aussi long que la tête, le deuxième un peu plus long, le troisième plus court que le second, le quatrième non renflé. La surface de la tête est couverte de quelques ponctuations noires que l'on retrouve sur le thorax et la corie des hémélytres.
 Pronotum en forme de trapèze, à bords latéraux droits, bord postérieur avec double sinuosité.
 Scutellum en triangle isocèle, à pointe mousse.
 Hémélytres allongés, relativement étroits ; corie avec deux nervures longitudinales, membrane avec quelques rares nervures (3) ; la surface des hémélytres est de teinte foncée avec deux taches plus claires, l'une à l'extrémité de la membrane et l'autre au contact de la membrane et de la corie. 
-Les restes des pattes I, II et III montrent que les fémurs ne sont pas renflés et que les tarses sont à trois articles[1].
-Dimensions
-Antennes : 12,5 mm ; longueur du corps depuis l'extrémité de la tête jusqu'à celle de l'aile droite : 14,5 mm[1].
-Affinités
-La structure des antennes, des pattes et la nervation des hémélytres dont la membrane ne présente que quelques nervures longitudinales attribuent notre échantillon aux Lygaeidae. Il se distingue de Lygaeus elongatiabdominalis N. Théobald d'Aix (page 362) par l'ornementation des téguments et par les cuisses non renflées. Sa taille est aussi un peu plus petite [1].
+Les restes des pattes I, II et III montrent que les fémurs ne sont pas renflés et que les tarses sont à trois articles.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lygaeus_obscurellus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lygaeus_obscurellus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antennes : 12,5 mm ; longueur du corps depuis l'extrémité de la tête jusqu'à celle de l'aile droite : 14,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure des antennes, des pattes et la nervation des hémélytres dont la membrane ne présente que quelques nervures longitudinales attribuent notre échantillon aux Lygaeidae. Il se distingue de Lygaeus elongatiabdominalis N. Théobald d'Aix (page 362) par l'ornementation des téguments et par les cuisses non renflées. Sa taille est aussi un peu plus petite .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lygaeus_obscurellus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Lygaeus a une extension presque universelle. Ces punaises vivent sur les herbes[3]. »
+« Le g. Lygaeus a une extension presque universelle. Ces punaises vivent sur les herbes. »
 </t>
         </is>
       </c>
